--- a/01_studies/01_Laborstudie ProVisioNET/Kontaktverfolgung_ProVisioNET_MK.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Kontaktverfolgung_ProVisioNET_MK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4DDBB38-AC93-413B-AC4D-61F40E2716D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{F4DDBB38-AC93-413B-AC4D-61F40E2716D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D36CFE04-14BD-475A-9755-ED0B896874E0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Datum</t>
   </si>
@@ -76,6 +76,48 @@
   </si>
   <si>
     <t>Kontaktverfolgung VP Akquise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. FS | Spanisch / Sport | Lehramt an Gymnasien | hat FSJ an Schule gemacht (5. UE in der 5. Klasse) </t>
+  </si>
+  <si>
+    <t>0159 01452563</t>
+  </si>
+  <si>
+    <t>Termin für Erhebung kommunizieren | Hinweise zum Datenschutz schicken + Einladungsschreiben</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Pascal</t>
+  </si>
+  <si>
+    <t>1511 4600397</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Susanne Borschke (Susi)</t>
+  </si>
+  <si>
+    <t>0176 72 185 278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deutsch (8. FS) | Ethik (6. FS) | Lehramt Oberschule </t>
+  </si>
+  <si>
+    <t>SMS geschrieben (12.07.2021)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sport / Geschichte (10. FS) | Lehramt Gymnasien </t>
+  </si>
+  <si>
+    <t>pascal.baum1@gmx.de</t>
+  </si>
+  <si>
+    <t>Akquise-Gespräch ProVisioNET</t>
   </si>
 </sst>
 </file>
@@ -180,17 +222,17 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -201,6 +243,18 @@
     <cellStyle name="Uhrzeit" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -222,34 +276,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="00000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="00000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -286,16 +328,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Ausgehend" displayName="Ausgehend" ref="A2:J7" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A2:J7" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="10">
-    <tableColumn id="10" xr3:uid="{B743D81B-9F0F-4770-BB34-848703F04748}" name="VP-ID" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Datum" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Uhrzeit" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Name" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Telefonnummer" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{3FB1913E-BD49-4AAE-8290-D149C7E878A5}" name="E-Mail-Adresse" dataDxfId="0" dataCellStyle="Telefon"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Betreff" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Notizen" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Aktionspunkte" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Nachverfolgen? J/N" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{B743D81B-9F0F-4770-BB34-848703F04748}" name="VP-ID" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Datum" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Uhrzeit" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Name" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Telefonnummer" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{3FB1913E-BD49-4AAE-8290-D149C7E878A5}" name="E-Mail-Adresse" dataDxfId="4" dataCellStyle="Telefon"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Betreff" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Notizen" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Aktionspunkte" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Nachverfolgen? J/N" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -634,32 +676,35 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="6" width="22.44140625" customWidth="1"/>
-    <col min="7" max="7" width="33.88671875" customWidth="1"/>
-    <col min="8" max="8" width="22.109375" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -694,7 +739,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="5">
@@ -706,47 +751,92 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="F5" s="7"/>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="E8" s="7"/>
@@ -785,7 +875,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <dataValidations count="9">
+  <dataValidations disablePrompts="1" count="9">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift das Datum ein. Verwenden Sie Überschriftsfilter, um bestimmte Einträge zu finden." sqref="A2:B2" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift die Anfangszeit ein." sqref="C2" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift den Namen ein." sqref="D2" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
@@ -798,12 +888,13 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{95B150B8-0C93-401B-90F5-EA472F187BF3}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{668081C4-18B2-419A-9C10-DD94434D0FAD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="71" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup scale="71" fitToHeight="0" orientation="landscape" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/01_studies/01_Laborstudie ProVisioNET/Kontaktverfolgung_ProVisioNET_MK.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Kontaktverfolgung_ProVisioNET_MK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{F4DDBB38-AC93-413B-AC4D-61F40E2716D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D36CFE04-14BD-475A-9755-ED0B896874E0}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{F4DDBB38-AC93-413B-AC4D-61F40E2716D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3AAAC027-A351-4D08-8074-565C895B337C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="103">
   <si>
     <t>Datum</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Aktionspunkte</t>
   </si>
   <si>
-    <t>Nachverfolgen? J/N</t>
-  </si>
-  <si>
     <t>VP-ID</t>
   </si>
   <si>
@@ -72,15 +69,9 @@
     <t>Akquise ProVisioNET</t>
   </si>
   <si>
-    <t>J</t>
-  </si>
-  <si>
     <t>Kontaktverfolgung VP Akquise</t>
   </si>
   <si>
-    <t xml:space="preserve">2. FS | Spanisch / Sport | Lehramt an Gymnasien | hat FSJ an Schule gemacht (5. UE in der 5. Klasse) </t>
-  </si>
-  <si>
     <t>0159 01452563</t>
   </si>
   <si>
@@ -90,9 +81,6 @@
     <t>102</t>
   </si>
   <si>
-    <t>Pascal</t>
-  </si>
-  <si>
     <t>1511 4600397</t>
   </si>
   <si>
@@ -111,13 +99,241 @@
     <t>SMS geschrieben (12.07.2021)</t>
   </si>
   <si>
-    <t xml:space="preserve">Sport / Geschichte (10. FS) | Lehramt Gymnasien </t>
-  </si>
-  <si>
     <t>pascal.baum1@gmx.de</t>
   </si>
   <si>
     <t>Akquise-Gespräch ProVisioNET</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>Pascal Baum</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Termin für Erhebung kommunizieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 Uhr </t>
+  </si>
+  <si>
+    <t>Zoom</t>
+  </si>
+  <si>
+    <t>16 Uhr</t>
+  </si>
+  <si>
+    <t>Plattform</t>
+  </si>
+  <si>
+    <t>Mail geschrieben (15.07.2021)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mailkontakt </t>
+  </si>
+  <si>
+    <t>Kontaktverlauf</t>
+  </si>
+  <si>
+    <t>Erhebungstermin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.07.2021 | 15.30 Uhr </t>
+  </si>
+  <si>
+    <t>27.07.2021 | 15.30 Uhr</t>
+  </si>
+  <si>
+    <t>wird noch bekanntgegeben</t>
+  </si>
+  <si>
+    <t>Deutsch | Geschichte | Kant Gymnasium Leipzig</t>
+  </si>
+  <si>
+    <t>Katrin Goldmann</t>
+  </si>
+  <si>
+    <t>goldmann@kantgym-leipzig.de</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>Deutsch | Französisch | Kant Gymnasium Leipzig</t>
+  </si>
+  <si>
+    <t>Anfrage ProVisioNET</t>
+  </si>
+  <si>
+    <t>Grit Mothes</t>
+  </si>
+  <si>
+    <t>mothes@kantgym-leipzig.de</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>Frank Haake</t>
+  </si>
+  <si>
+    <t>haake@kantgym-leipzig.de</t>
+  </si>
+  <si>
+    <t>Mathe | Phsyik | Kant Gymnasium Leipzig</t>
+  </si>
+  <si>
+    <t>Sabine Findeisen</t>
+  </si>
+  <si>
+    <t>findeisen@kantgym-leipzig.de</t>
+  </si>
+  <si>
+    <t>Ethik | Deutsch | Geschichte | Kant Gymnasium Leipzig</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>Felix Alscher</t>
+  </si>
+  <si>
+    <t>alscher@kantgym-leipzig.de</t>
+  </si>
+  <si>
+    <t>Mathe | Informatik  | Kant Gymnasium Leipzig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spanisch (2. FS) | Sport (2. FS) | Lehramt Gymnasien | hat FSJ an Schule gemacht (5. UE in der 5. Klasse) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sport (10. FS) | Geschichte (10. FS) | Lehramt Gymnasien </t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>Thomas Eckert</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>eckert@kantgym-leipzig.de</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>Sabine Maennel</t>
+  </si>
+  <si>
+    <t>maennel@kantgym-leipzig.de</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>Annett Kertzscher</t>
+  </si>
+  <si>
+    <t>kertzscher@kantgym-leipzig.de</t>
+  </si>
+  <si>
+    <t>Betty Seifert</t>
+  </si>
+  <si>
+    <t>seifert@kantgym-leipzig.de</t>
+  </si>
+  <si>
+    <t>Chemie | Biologie | Kant Gymnasium Leipzig</t>
+  </si>
+  <si>
+    <t>Deutsch | Englisch | Kant Gymnasium Leipzig</t>
+  </si>
+  <si>
+    <t>Deutsch | Englisch | Russisch | Kant Gymnasium Leipzig</t>
+  </si>
+  <si>
+    <t>Französisch | Ethik | Kant Gymnasium Leipzig</t>
+  </si>
+  <si>
+    <t>konkrete Anfrage ProVisioNET</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>Kathleen Pohlers</t>
+  </si>
+  <si>
+    <t>Englisch | Sport | Kant Gymnasium Leipzig</t>
+  </si>
+  <si>
+    <t>pohlers@kantgym-leipzig.de</t>
+  </si>
+  <si>
+    <t>Petra Brückner</t>
+  </si>
+  <si>
+    <t>brueckner@kantgym-leipzig.de</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>Andrea Bergner</t>
+  </si>
+  <si>
+    <t>a.bergner@montessori-leipzig.de</t>
+  </si>
+  <si>
+    <t>Englisch | Russisch | Montessori Schule Leipzig</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>Mathe | Physik| Anton-Philipp-Reclam-Gymnasium</t>
+  </si>
+  <si>
+    <t>Dr. Uwe Schmidt</t>
+  </si>
+  <si>
+    <t>druwe.schmidt@gmail.com</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>Ariane Hinneburg</t>
+  </si>
+  <si>
+    <t>angelakalbitz@gmail.com</t>
+  </si>
+  <si>
+    <t>Angela Kalbitz</t>
+  </si>
+  <si>
+    <t>Englisch | Französisch | Werner-Heisenberg-Gymnasium</t>
+  </si>
+  <si>
+    <t>Mathe | Ethik | Lehrkraft für besondere Aufgaben Uni Leipzig</t>
+  </si>
+  <si>
+    <t>ariane.hinneburg@uni-leipzig.de</t>
+  </si>
+  <si>
+    <t>215</t>
   </si>
 </sst>
 </file>
@@ -199,7 +415,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -222,9 +438,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -233,6 +446,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -242,9 +473,9 @@
     <cellStyle name="Telefon" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Uhrzeit" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -276,11 +507,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="00000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="167" formatCode="00000"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
@@ -325,19 +596,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Ausgehend" displayName="Ausgehend" ref="A2:J7" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A2:J7" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="10" xr3:uid="{B743D81B-9F0F-4770-BB34-848703F04748}" name="VP-ID" dataDxfId="9"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Datum" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Uhrzeit" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Name" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Telefonnummer" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{3FB1913E-BD49-4AAE-8290-D149C7E878A5}" name="E-Mail-Adresse" dataDxfId="4" dataCellStyle="Telefon"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Ausgehend" displayName="Ausgehend" ref="A2:L20" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A2:L20" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="10" xr3:uid="{B743D81B-9F0F-4770-BB34-848703F04748}" name="VP-ID" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Datum" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Uhrzeit" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{547EF834-A414-4C8A-8957-2AB93C40C192}" name="Plattform" dataDxfId="8" dataCellStyle="Uhrzeit"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Name" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Telefonnummer" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{3FB1913E-BD49-4AAE-8290-D149C7E878A5}" name="E-Mail-Adresse" dataDxfId="5" dataCellStyle="Telefon"/>
+    <tableColumn id="13" xr3:uid="{B703622D-C4A7-44B1-9E3B-A9C1224DDF10}" name="Kontaktverlauf" dataDxfId="4" dataCellStyle="Telefon"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Betreff" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Notizen" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Aktionspunkte" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Nachverfolgen? J/N" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{AA86FB0A-E21A-44F7-B0ED-197FA869BA27}" name="Erhebungstermin" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -673,10 +946,10 @@
     <tabColor theme="6" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,217 +957,659 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="B3" s="5">
         <v>44386</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5">
+        <v>44390</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5">
+        <v>44390</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="K5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
   <dataValidations disablePrompts="1" count="9">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift das Datum ein. Verwenden Sie Überschriftsfilter, um bestimmte Einträge zu finden." sqref="A2:B2" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift die Anfangszeit ein." sqref="C2" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift den Namen ein." sqref="D2" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift die Telefonnummer ein." sqref="E2:F2" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift den Betreff ein." sqref="G2" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift Anmerkungen ein." sqref="H2" xr:uid="{00000000-0002-0000-0100-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift Aktionspunkte ein." sqref="I2" xr:uid="{00000000-0002-0000-0100-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift &quot;Ja&quot; oder &quot;Nein&quot; ein, wenn dieser Anruf nachverfolgt werden soll." sqref="J2" xr:uid="{00000000-0002-0000-0100-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Erstellen Sie einen Telefongesprächstracker für ausgehende Anrufe auf diesem Arbeitsblatt. Der Titel dieses Arbeitsblatts befindet sich in dieser Zelle. Geben Sie Details zu den ausgehenden Anrufen in der Tabelle unten ein." sqref="A1:I1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift die Anfangszeit ein." sqref="C2:D2" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift den Namen ein." sqref="E2" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift die Telefonnummer ein." sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift den Betreff ein." sqref="I2" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift Anmerkungen ein." sqref="J2" xr:uid="{00000000-0002-0000-0100-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift Aktionspunkte ein." sqref="K2:L2" xr:uid="{00000000-0002-0000-0100-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift &quot;Ja&quot; oder &quot;Nein&quot; ein, wenn dieser Anruf nachverfolgt werden soll." sqref="H2" xr:uid="{00000000-0002-0000-0100-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Erstellen Sie einen Telefongesprächstracker für ausgehende Anrufe auf diesem Arbeitsblatt. Der Titel dieses Arbeitsblatts befindet sich in dieser Zelle. Geben Sie Details zu den ausgehenden Anrufen in der Tabelle unten ein." sqref="A1:L1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{95B150B8-0C93-401B-90F5-EA472F187BF3}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{668081C4-18B2-419A-9C10-DD94434D0FAD}"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{95B150B8-0C93-401B-90F5-EA472F187BF3}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{668081C4-18B2-419A-9C10-DD94434D0FAD}"/>
+    <hyperlink ref="G6" r:id="rId3" xr:uid="{9688FF7D-0364-4180-8AFA-4187302E6D0B}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{09C8ABC1-ACA0-4843-BAE6-A0E3F0F67EF1}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{09920B59-F40B-431E-AFE7-C52B4CDB4F70}"/>
+    <hyperlink ref="G9" r:id="rId6" xr:uid="{7A42F365-1F61-44E5-8C5A-4686EAEB0B07}"/>
+    <hyperlink ref="G10" r:id="rId7" xr:uid="{9FB4CB27-565E-464C-B01C-C06BD0D43F97}"/>
+    <hyperlink ref="G11" r:id="rId8" xr:uid="{69F217B9-0201-4D0F-A759-4023A20E43CA}"/>
+    <hyperlink ref="G12" r:id="rId9" xr:uid="{EB51525E-2DE7-4246-9570-F57DBB6C156F}"/>
+    <hyperlink ref="G13" r:id="rId10" xr:uid="{3E71E4E9-3D85-437A-BA1B-C5EA77E8C3FB}"/>
+    <hyperlink ref="G14" r:id="rId11" xr:uid="{04964FEC-F44F-4967-A228-B01A9766ED35}"/>
+    <hyperlink ref="G15" r:id="rId12" xr:uid="{D0D73554-3C9C-4A03-9538-7207DA29773A}"/>
+    <hyperlink ref="G17" r:id="rId13" xr:uid="{9B13E169-A7B9-41A6-BE1B-B885A8EEABE8}"/>
+    <hyperlink ref="G19" r:id="rId14" xr:uid="{1D6F14E4-3F31-49B5-B466-22824E78BE9C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="71" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <pageSetup scale="71" fitToHeight="0" orientation="landscape" r:id="rId15"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>